--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3615986.662731128</v>
+        <v>3613442.070036842</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.1450882057755</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663197</v>
+        <v>109.9645463939861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.85131602594348</v>
+        <v>130.4949840230016</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.28480602304981</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425941</v>
+        <v>23.94240680425904</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090805</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074792</v>
       </c>
       <c r="S6" t="n">
-        <v>2.765464414058626</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>29.43305940534599</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36.85894767156906</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.1480668197304</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>60.64560821255572</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>293.7338309261896</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1218,13 +1218,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>20.27697994470635</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.854692234071571</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.2893995353463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74133133758728</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513808</v>
+        <v>126.0773463611704</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097399</v>
+        <v>133.0228471103738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546597</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264271</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264271</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264271</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264271</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264271</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264271</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264271</v>
+        <v>146.8151621480547</v>
       </c>
       <c r="Y3" t="n">
-        <v>593.2496096204236</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>392.7833013372467</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="C5" t="n">
-        <v>392.7833013372467</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="D5" t="n">
-        <v>392.7833013372467</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>392.7833013372467</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="F5" t="n">
-        <v>385.8378005880432</v>
+        <v>46.93369746226215</v>
       </c>
       <c r="G5" t="n">
-        <v>373.4621594425388</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11846644105032</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746973</v>
+        <v>277.9807166746987</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030751</v>
+        <v>521.2049416030774</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709161</v>
+        <v>823.508193570919</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837879</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540647</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540647</v>
+        <v>1562.810726301003</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540647</v>
+        <v>1562.810726301003</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.080602212011</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="V5" t="n">
-        <v>1119.017714868441</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="W5" t="n">
-        <v>766.2490595983265</v>
+        <v>1309.172761972367</v>
       </c>
       <c r="X5" t="n">
-        <v>392.7833013372467</v>
+        <v>935.7070037112867</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.7833013372467</v>
+        <v>826.2672908738316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787499</v>
+        <v>61.66788464787542</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806056</v>
+        <v>186.1577239806065</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189966</v>
+        <v>399.8722171189982</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223482</v>
+        <v>668.6238185223506</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352455</v>
+        <v>958.8971200352487</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906545</v>
+        <v>1401.100270703775</v>
       </c>
       <c r="S6" t="n">
-        <v>1443.085262508506</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1247.544644228261</v>
+        <v>1062.768760419125</v>
       </c>
       <c r="U6" t="n">
-        <v>1247.544644228261</v>
+        <v>834.6536183746811</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857986</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495857986</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734629</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="E7" t="n">
-        <v>71.78931659106976</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="F7" t="n">
-        <v>71.78931659106976</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574654</v>
+        <v>64.240666625747</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584109</v>
+        <v>132.1299861584117</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347962</v>
+        <v>206.9680378347975</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195354</v>
+        <v>287.8841338195371</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934701</v>
+        <v>342.3101561934722</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857986</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857986</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857986</v>
+        <v>252.889436942748</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857986</v>
+        <v>252.889436942748</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857986</v>
+        <v>252.889436942748</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857986</v>
+        <v>252.889436942748</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857986</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857986</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857986</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857986</v>
+        <v>34.55805631675772</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>721.0231940540768</v>
+        <v>588.3049192120716</v>
       </c>
       <c r="C8" t="n">
-        <v>352.0606771136651</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0606771136651</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>352.0606771136651</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029889</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540768</v>
+        <v>588.3049192120716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4908,25 +4908,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>201.2365247003565</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>53.32343111796334</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4993,19 +4993,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5027,58 +5027,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745235</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5258,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273905</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273905</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,7 +5768,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,49 +6227,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>24.63391537253441</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055062</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253111</v>
+        <v>270592.3620253127</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231944</v>
+        <v>115410.0540231926</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.9447285446</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881951</v>
+        <v>62913.63765881983</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197523</v>
+        <v>27875.25362197477</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263466</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,37 +26427,37 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186733</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186738</v>
       </c>
-      <c r="J4" t="n">
-        <v>14826.6960418674</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186734</v>
-      </c>
       <c r="L4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936808</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955201</v>
+        <v>-146889.5863955204</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000431</v>
+        <v>226357.1617000424</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.555403105</v>
+        <v>405177.5554031065</v>
       </c>
       <c r="E6" t="n">
-        <v>49396.83626546685</v>
+        <v>49362.09834003031</v>
       </c>
       <c r="F6" t="n">
-        <v>650840.0438397311</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="G6" t="n">
-        <v>650840.0438397317</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="H6" t="n">
-        <v>650840.0438397317</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="I6" t="n">
-        <v>650840.0438397316</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="J6" t="n">
-        <v>601775.0991111869</v>
+        <v>601740.3611857508</v>
       </c>
       <c r="K6" t="n">
-        <v>587926.4061809119</v>
+        <v>587891.6682554759</v>
       </c>
       <c r="L6" t="n">
-        <v>622964.7902177562</v>
+        <v>622930.0522923213</v>
       </c>
       <c r="M6" t="n">
-        <v>493693.6632881333</v>
+        <v>493658.9253626976</v>
       </c>
       <c r="N6" t="n">
-        <v>650840.0438397315</v>
+        <v>650805.3059142954</v>
       </c>
       <c r="O6" t="n">
-        <v>650840.0438397314</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="P6" t="n">
-        <v>650840.0438397313</v>
+        <v>650805.3059142958</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950603</v>
+        <v>758.8996292950618</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594697</v>
+        <v>431.9757039594715</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382156</v>
+        <v>210.4296883821572</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426238</v>
+        <v>94.81103524262232</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666936</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931503</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.368868402633089e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666936</v>
+        <v>110.1392527666917</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734848</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.730957535936</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637383</v>
+        <v>303.1332868360719</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871061</v>
+        <v>63.64367339871044</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y3" t="n">
-        <v>122.8313797513609</v>
+        <v>75.18771175430277</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.218016392135</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>65.5730817045508</v>
+        <v>92.85788772760039</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469731</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937524</v>
+        <v>43.32085084937513</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074812</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.5975186703021</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>222.2619237555736</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.7635241586527</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27795,7 +27795,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304065</v>
+        <v>30.24193919304047</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589174</v>
+        <v>36.91115760589152</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27831,7 +27831,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.98957650409761</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.6272835584518</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>113.1422148155219</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27980,10 +27980,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>172.4862383660574</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>135.5663557888597</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>39.79376420727294</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.2445460442936</v>
+        <v>31.24454604429366</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286699</v>
+        <v>258.9373162286704</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520263</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511769</v>
+        <v>481.4474502511778</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968091</v>
+        <v>535.7030533968101</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610688</v>
+        <v>544.3712888610698</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191482</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860957</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898971</v>
+        <v>69.52130774898986</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062476</v>
+        <v>56.20152915062487</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721884</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374447</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872491</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737887</v>
+        <v>6.579516597378882</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734525</v>
+        <v>41.15475366734533</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635546</v>
+        <v>96.75348224635565</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399135</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.533074860547</v>
+        <v>61.53307486054712</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391197</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830791</v>
+        <v>5.847259438830802</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656339</v>
+        <v>0.07464586517656353</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32072,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157994</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.586862646002</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.8914117019836</v>
+        <v>77.89141170198411</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.9900634070465</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695364</v>
+        <v>305.3568201695374</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644779</v>
+        <v>314.9582252644789</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974614</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.483447730827</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890163</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092668</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923142</v>
+        <v>215.8732253923149</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930003</v>
+        <v>245.781379993001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687279</v>
+        <v>68.38629016872829</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554472</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501446</v>
+        <v>68.57507023501486</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230841</v>
+        <v>75.59399159230884</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761531</v>
+        <v>81.7334302876157</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569165</v>
+        <v>54.97578017569202</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235202</v>
+        <v>27.78676100235234</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324661</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
